--- a/src/test/resources/dataDriven/Pagos.xlsx
+++ b/src/test/resources/dataDriven/Pagos.xlsx
@@ -3,33 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candyespinzabaez/Documents/Android/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ProyCanalApp/Android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F165B0-8C8B-5C48-BE3A-52BD322B3722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D416E5E4-C7F7-4C4C-B342-911502EB1295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="3240" windowWidth="34560" windowHeight="13940" activeTab="1" xr2:uid="{897FEA26-AEC5-9349-951A-1C74BA5F166B}"/>
+    <workbookView xWindow="580" yWindow="3160" windowWidth="31000" windowHeight="12400" xr2:uid="{897FEA26-AEC5-9349-951A-1C74BA5F166B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="4" r:id="rId1"/>
-    <sheet name="TiempoInactividadPagos" sheetId="21" r:id="rId2"/>
-    <sheet name="SucripcionDesdePagos" sheetId="20" r:id="rId3"/>
-    <sheet name="SucripcionDesdeAfiliacion" sheetId="19" r:id="rId4"/>
-    <sheet name="SucripcionDesdePerfil" sheetId="18" r:id="rId5"/>
-    <sheet name="DescargaHistorialPagos" sheetId="17" r:id="rId6"/>
-    <sheet name="SuscripcionOpcionPagar" sheetId="10" r:id="rId7"/>
-    <sheet name="PagoAsociandoTarjeta" sheetId="9" r:id="rId8"/>
-    <sheet name="PagoPolizaSoat" sheetId="15" r:id="rId9"/>
-    <sheet name="PagoAfiliadoDebitoAuto" sheetId="16" r:id="rId10"/>
-    <sheet name="PagoConValidacionHistorial" sheetId="12" r:id="rId11"/>
-    <sheet name="PagoSinTarjetaAsociada" sheetId="13" r:id="rId12"/>
-    <sheet name="PagoConTarjetaAsociada" sheetId="14" r:id="rId13"/>
+    <sheet name="DescargaHistorialPagos" sheetId="17" r:id="rId2"/>
+    <sheet name="CronogramaPagos" sheetId="28" r:id="rId3"/>
+    <sheet name="HistorialPagos" sheetId="29" r:id="rId4"/>
+    <sheet name="TiempoInactividadPagos" sheetId="21" r:id="rId5"/>
+    <sheet name="SucripcionDesdePagos" sheetId="20" r:id="rId6"/>
+    <sheet name="SucripcionDesdeAfiliacion" sheetId="19" r:id="rId7"/>
+    <sheet name="SucripcionDesdePerfil" sheetId="18" r:id="rId8"/>
+    <sheet name="SuscripcionOpcionPagar" sheetId="10" r:id="rId9"/>
+    <sheet name="PagoSinTarjetaAsociada" sheetId="27" r:id="rId10"/>
+    <sheet name="PagoAfiliadoDebitoAuto" sheetId="26" r:id="rId11"/>
+    <sheet name="PagoConTarjetaAsociada" sheetId="23" r:id="rId12"/>
+    <sheet name="PagoPolizaSoat" sheetId="25" r:id="rId13"/>
+    <sheet name="PagoAsociandoTarjeta" sheetId="24" r:id="rId14"/>
+    <sheet name="PagoConValidacionHistorial" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
   <si>
     <t>usar</t>
   </si>
@@ -189,12 +191,6 @@
     <t>JSZ-286</t>
   </si>
   <si>
-    <t>01320073</t>
-  </si>
-  <si>
-    <t>AYD-290</t>
-  </si>
-  <si>
     <t>41007984</t>
   </si>
   <si>
@@ -237,20 +233,31 @@
     <t xml:space="preserve">03/28 </t>
   </si>
   <si>
-    <t>4474104525811670</t>
-  </si>
-  <si>
     <t>29724303</t>
   </si>
   <si>
-    <t>25676942</t>
+    <t>JSZ-361</t>
+  </si>
+  <si>
+    <t>4474104525811674</t>
+  </si>
+  <si>
+    <t>@HistorialPagos</t>
+  </si>
+  <si>
+    <t>@CronogramaPagos</t>
+  </si>
+  <si>
+    <t>Ver el Historial de Pagos de una poliza Vehicular-Tap Pagos y se ve el listado de cuotas</t>
+  </si>
+  <si>
+    <t>Ver el Cronograma de Pagos de una poliza Vehicular-Tap Pagos y se ve el listado de cuotas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -366,7 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -379,6 +385,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,15 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,17 +730,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C42A7D-7837-8E42-8A35-D44D494A8A75}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="33.1640625"/>
-    <col min="3" max="3" customWidth="true" width="77.1640625"/>
-    <col min="4" max="4" customWidth="true" width="8.1640625"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,154 +758,178 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="SuscripcionOpcionPagar!A1" display="Aqui" xr:uid="{649C6BDB-E979-BF4F-A0D0-A1C521DC030E}"/>
@@ -903,32 +940,32 @@
     <hyperlink ref="D6" location="PagoAsociandoTarjeta!C2" display="Aqui" xr:uid="{44444C08-4AED-A148-86F4-4E701B70469E}"/>
     <hyperlink ref="D7" location="PagoAfiliadoDebitoAuto!C2" display="Aqui" xr:uid="{81CDC626-6AF4-2441-885A-3438ADC40EE8}"/>
     <hyperlink ref="D8" location="PagoPolizaSoat!A1" display="Aqui" xr:uid="{7C096C6B-3F19-1340-899D-6DB2AB9F862E}"/>
-    <hyperlink ref="D9" location="DescargaHistorialPagos!A1" display="Aqui" xr:uid="{AF849F2A-31FB-8D49-A28E-637F7B509648}"/>
-    <hyperlink ref="D10" location="SucripcionDesdePerfil!A1" display="Aqui" xr:uid="{A0ED24BA-C399-ED48-9657-2B7D4D436450}"/>
-    <hyperlink ref="D11" location="SucripcionDesdePagos!A1" display="Aqui" xr:uid="{D72EA8A3-9C0D-254F-9D1D-0CDA32F72C56}"/>
-    <hyperlink ref="D12" location="SucripcionDesdeAfiliacion!A1" display="Aqui" xr:uid="{AC056126-D736-B740-9B53-31F4FE6A601D}"/>
-    <hyperlink ref="D13" location="TiempoInactividadPagos!A1" display="Aqui" xr:uid="{29C8A1DE-4DF8-8941-B899-DD8AEF246C2F}"/>
+    <hyperlink ref="D11" location="DescargaHistorialPagos!A1" display="Aqui" xr:uid="{AF849F2A-31FB-8D49-A28E-637F7B509648}"/>
+    <hyperlink ref="D12" location="SucripcionDesdePerfil!A1" display="Aqui" xr:uid="{A0ED24BA-C399-ED48-9657-2B7D4D436450}"/>
+    <hyperlink ref="D13" location="SucripcionDesdePagos!A1" display="Aqui" xr:uid="{D72EA8A3-9C0D-254F-9D1D-0CDA32F72C56}"/>
+    <hyperlink ref="D14" location="SucripcionDesdeAfiliacion!A1" display="Aqui" xr:uid="{AC056126-D736-B740-9B53-31F4FE6A601D}"/>
+    <hyperlink ref="D15" location="TiempoInactividadPagos!A1" display="Aqui" xr:uid="{29C8A1DE-4DF8-8941-B899-DD8AEF246C2F}"/>
+    <hyperlink ref="D9" location="HistorialPagos!A1" display="Aqui" xr:uid="{3E7E4D3A-86E5-8543-A1DB-4A98DB019005}"/>
+    <hyperlink ref="D10" location="CronogramaPagos!A1" display="Aqui" xr:uid="{25BD72EF-0E0E-DB49-8BA8-825B427DE8A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6CE38-7DB4-7C41-A02E-1D916ADA86C0}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A646792-EAD2-A746-B6E1-49CAB1F06C31}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,114 +995,53 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,17 +1049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EA8764-D6BA-2E4A-AB20-ECC6AE01BCB6}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91B7E9-324C-AD45-ADF7-BC631C531E59}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1116,75 +1096,57 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,108 +1154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CFF333-F772-1E4C-A639-5FDD23BE3A9F}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H3" sqref="G3:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="6.33203125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125"/>
-    <col min="7" max="7" customWidth="true" width="7.6640625"/>
-    <col min="8" max="8" customWidth="true" width="6.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADFF5E3-040A-A649-825C-8E150DC630DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518C392F-B306-AB47-BA5F-5B7D9F8B963C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,35 +1181,350 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E0ED6D-2704-7948-B238-3FFF43A616CF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28A756F-0A9D-E94B-815A-F36EC0DB2379}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A8779B-F114-3748-844C-0C7BAF5B23FB}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1353,239 +1533,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D040F35A-9C55-D14E-9D1A-03FD405E4F4F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B565DAC-5437-F844-BBB7-3676010D1F57}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.33203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2615C80-0E73-1547-B8DC-69E6EAB1F401}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C999F55-BE50-0341-B24F-C9A8D4B840AF}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC9C450-5FB8-2947-B0BE-AB7A8165811E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1593,35 +1540,228 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D6DED2-2592-5541-8C17-377FCCCDB408}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9654A0-B3F3-224E-96DD-3104B8FE0F75}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D040F35A-9C55-D14E-9D1A-03FD405E4F4F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B565DAC-5437-F844-BBB7-3676010D1F57}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>18</v>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1630,97 +1770,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF86D5-85B3-E04C-926D-D08630BD5F72}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2615C80-0E73-1547-B8DC-69E6EAB1F401}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="5" max="5" customWidth="true" width="10.83203125"/>
-    <col min="6" max="6" customWidth="true" width="18.5"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1729,158 +1835,64 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B721F0-8325-1E41-B651-41D77C2E1564}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C999F55-BE50-0341-B24F-C9A8D4B840AF}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,44 +1900,96 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086E15CE-6FEE-6D43-BA3D-164213244EC1}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF86D5-85B3-E04C-926D-D08630BD5F72}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dataDriven/Pagos.xlsx
+++ b/src/test/resources/dataDriven/Pagos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ProyCanalApp/Android/"/>
     </mc:Choice>
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -258,6 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -738,9 +739,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="77.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="33.1640625"/>
+    <col min="3" max="3" customWidth="true" width="77.1640625"/>
+    <col min="4" max="4" customWidth="true" width="8.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,10 +963,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125"/>
+    <col min="7" max="7" customWidth="true" width="7.6640625"/>
+    <col min="8" max="8" customWidth="true" width="6.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,6 +1022,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1058,12 +1060,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625"/>
+    <col min="6" max="6" customWidth="true" width="20.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,31 +1121,37 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4"/>
       <c r="C4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1198,6 +1206,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1235,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1272,12 +1281,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625"/>
+    <col min="6" max="6" customWidth="true" width="20.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1307,6 +1316,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2"/>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1380,31 +1390,37 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7"/>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9"/>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10"/>
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1425,8 +1441,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,6 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1505,6 +1522,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,7 +1686,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1714,8 +1732,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1779,8 +1797,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
+    <col min="5" max="5" customWidth="true" width="20.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1844,8 +1862,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.1640625"/>
+    <col min="5" max="5" customWidth="true" width="20.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1909,12 +1927,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.1640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="5" max="5" customWidth="true" width="10.83203125"/>
+    <col min="6" max="6" customWidth="true" width="18.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1970,6 +1988,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
